--- a/Fundamentos-Ciencia-de-Datos/Ejercicios propuestos #2.xlsx
+++ b/Fundamentos-Ciencia-de-Datos/Ejercicios propuestos #2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itla-Diplomado-Data-Science\Introduccion a Ciencia de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itla-Diplomado-Data-Science\Fundamentos-Ciencia-de-Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32AD748-B733-4D94-8E96-0FC980F94B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9584FF21-4B79-4A3D-907F-6BDD8D155D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="8595" xr2:uid="{E991D812-851C-422F-863D-390AE13FAA27}"/>
   </bookViews>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Pesos de papas (Lb)</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Rango</t>
@@ -402,12 +399,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -420,10 +418,11 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("Minimo: ",MIN(A2:A12)," Maximo: ",MAX(A2:A12), " Rango:",MAX(A2:A12)-MIN(A2:A12))</f>
+        <v>Minimo: 1 Maximo: 16 Rango:15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,10 +430,11 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.STDEV.P(A2:A12)</f>
+        <v>4.0777566349101457</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,10 +442,11 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT("Q1: ", _xlfn.QUARTILE.EXC(A2:A12,1), " Q3: ", _xlfn.QUARTILE.EXC(A2:A12,3), " IQR: ", _xlfn.QUARTILE.EXC(A2:A12,3)-_xlfn.QUARTILE.EXC(A2:A12,1))</f>
+        <v>Q1: 2 Q3: 7 IQR: 5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,10 +454,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
